--- a/src/images/speed.xlsx
+++ b/src/images/speed.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23515"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7540" yWindow="1520" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,13 +24,13 @@
     <t>Ruby</t>
   </si>
   <si>
-    <t>JS</t>
-  </si>
-  <si>
     <t>Go</t>
   </si>
   <si>
-    <t>Ops per Second</t>
+    <t>ops/sec</t>
+  </si>
+  <si>
+    <t>JS (V8)</t>
   </si>
 </sst>
 </file>
@@ -108,12 +108,31 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Ops per Second</c:v>
+                  <c:v>ops/sec</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="1"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$A$2:$A$4</c:f>
@@ -123,7 +142,7 @@
                   <c:v>Ruby</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>JS</c:v>
+                  <c:v>JS (V8)</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Go</c:v>
@@ -135,16 +154,16 @@
             <c:numRef>
               <c:f>Sheet1!$B$2:$B$4</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="3"/>
-                <c:pt idx="0" formatCode="#,##0">
-                  <c:v>44000.0</c:v>
+                <c:pt idx="0">
+                  <c:v>14705.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0</c:v>
+                  <c:v>1.116619E6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>357.0</c:v>
+                  <c:v>2.793296E6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -159,11 +178,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="75"/>
-        <c:axId val="-2116653416"/>
-        <c:axId val="-2116648104"/>
+        <c:axId val="2048276920"/>
+        <c:axId val="2049110376"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2116653416"/>
+        <c:axId val="2048276920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -172,7 +191,17 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2116648104"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2049110376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -180,7 +209,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2116648104"/>
+        <c:axId val="2049110376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -190,15 +219,37 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2116653416"/>
+        <c:crossAx val="2048276920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.311561547230839"/>
+          <c:y val="0.84820046818472"/>
+          <c:w val="0.309536838198255"/>
+          <c:h val="0.108556288572037"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -228,8 +279,8 @@
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>165100</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
@@ -575,41 +626,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="B1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>44000</v>
+        <v>14705</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1116619</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>357</v>
+      <c r="B4" s="1">
+        <v>2793296</v>
+      </c>
+      <c r="C4">
+        <f>B4/B2</f>
+        <v>189.95552533151988</v>
       </c>
     </row>
   </sheetData>
